--- a/KiCad/BOMs/Boms.xlsx
+++ b/KiCad/BOMs/Boms.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SNA1BP\Documents\Masters-thesis\KiCad\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D9E02D-0C74-4DED-81F7-337A831F7EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A78B94B-D0FA-44F3-BA04-A3DA94A0F342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="buttons" sheetId="2" r:id="rId1"/>
     <sheet name="display" sheetId="3" r:id="rId2"/>
-    <sheet name="motherboard" sheetId="4" r:id="rId3"/>
-    <sheet name="numpad" sheetId="5" r:id="rId4"/>
+    <sheet name="numpad" sheetId="5" r:id="rId3"/>
+    <sheet name="motherboard" sheetId="4" r:id="rId4"/>
     <sheet name="Summary" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">buttons!$A$1:$H$6</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">display!$A$1:$H$8</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">motherboard!$A$1:$H$49</definedName>
-    <definedName name="ExternalData_1" localSheetId="3" hidden="1">numpad!$A$1:$H$17</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">display!$A$1:$F$8</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">motherboard!$A$1:$H$49</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">numpad!$A$1:$H$17</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="300">
   <si>
     <t>Id</t>
   </si>
@@ -72,12 +72,6 @@
     <t>Supplier and ref</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>_1</t>
-  </si>
-  <si>
     <t>SW2,SW4,SW5,SW7,SW3,SW6,SW1</t>
   </si>
   <si>
@@ -570,9 +564,6 @@
     <t>100k_R_0603_1608Metric</t>
   </si>
   <si>
-    <t>TestPoint_TestPoint_Pad_D2.0mm</t>
-  </si>
-  <si>
     <t>GREEN_LED_D_0603_1608Metric</t>
   </si>
   <si>
@@ -766,6 +757,201 @@
   </si>
   <si>
     <t xml:space="preserve">Thin Film Resistors - SMD .032W 100Kohms 0.1% 0603 25ppm </t>
+  </si>
+  <si>
+    <t>150060VS83000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Colour LEDs WL-SMCW SMT 0603 Dome Bright Green Typ 300mcd 2V </t>
+  </si>
+  <si>
+    <t>MCT06030D1000BP500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thin Film Resistors - SMD .032W 100ohms 0.1% 0603 25ppm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">621-BSS138-13-F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">77-VJ0603Y102JXACBC </t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 0603 1000pF 50volts X7R 5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">810-C3216X5R1V226M </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multilayer Ceramic Capacitors MLCC - SMD/SMT 1206 35V 22uF X5R 20% T: 1.6mm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">594-MCT06030D4701BP5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thin Film Resistors - SMD .032W 4.7Kohms 0.1% 0603 25ppm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">963-TMK107B7105KA-T </t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 963-MSAST168SB7105KT RPLCMT PN 25V 1uF X7R 0603 10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">710-150060SS75003 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Colour LEDs WL-SMCW 320mcd 1,9V 0603 S_Red 630nm Adv </t>
+  </si>
+  <si>
+    <t xml:space="preserve">859-LTV-817S </t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Ide is simán a zöld mehet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71-CRCW06030000Z0EE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">594-MCT06030D2201BP5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thin Film Resistors - SMD MCT 0603-25 0.1% P5 2K2 </t>
+  </si>
+  <si>
+    <t>megjegyzés</t>
+  </si>
+  <si>
+    <t>Rendelve</t>
+  </si>
+  <si>
+    <t>Megérkezett</t>
+  </si>
+  <si>
+    <t>Beültetve</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 306-B9BPHKSLFSNP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">306-B5BPHKSLFSNP </t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Ez csak az A0 lehúzó ellenállása, nem kell megrendelni</t>
+  </si>
+  <si>
+    <t>I2C felhúzó ellenállás, a működés ellenőrzéséhez kell</t>
+  </si>
+  <si>
+    <t>Zöld LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">594-MCT06030D1500BP5 </t>
+  </si>
+  <si>
+    <t>Ez már meg van</t>
+  </si>
+  <si>
+    <t>MCT06030D7501BP500</t>
+  </si>
+  <si>
+    <t>B4B-PH-K-S(LF)(SN)</t>
+  </si>
+  <si>
+    <t>DNP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 595-TL431BCDR  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">594-MCT06030D5102BP5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">584-LT1632IS8#PBF </t>
+  </si>
+  <si>
+    <t>Ide igazából 2soros anya kell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2B-PH-K-S(LF)(SN) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">651-1734656 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">710-694108106102 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">576-SZSMF6L24CAT3G </t>
+  </si>
+  <si>
+    <t xml:space="preserve">622-025-260-042 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">576-0154007.DRTL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">306-B4BPHKSLFSNPP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">306-B6B-PH-K-SLFSN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">306-B9BPHKSLFSNP </t>
+  </si>
+  <si>
+    <t>Ezek a jumpereknek ilyen 2-es pinek</t>
+  </si>
+  <si>
+    <t>SPI illesztő mellett tüskesor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">594-MCT06030D2702BP5 </t>
+  </si>
+  <si>
+    <t>75V-os</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490-P7805B-1000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">490-P7803B-1000 </t>
+  </si>
+  <si>
+    <t>859-LTV-817S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">630-ASSR-1218-503E </t>
+  </si>
+  <si>
+    <t>Ilyenünk van</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78-SI2369DS-T1-GE3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">595-LSF0204QPWRQ1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">78-V8PAM103HM3H </t>
+  </si>
+  <si>
+    <t>Ide 190 jó lesz, mert 11 mA nál már szaturál lényegében</t>
+  </si>
+  <si>
+    <t xml:space="preserve">571-1761681-9 </t>
+  </si>
+  <si>
+    <t>ide is 27k lesz, rajzon frissítve</t>
+  </si>
+  <si>
+    <t>150R-re frissítve a rajzon</t>
   </si>
 </sst>
 </file>
@@ -824,17 +1010,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="32">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -922,8 +1133,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{2E812AF7-471D-417B-88EC-8357971F52B7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="9">
-    <queryTableFields count="8">
+  <queryTableRefresh nextId="11" unboundColumnsRight="2">
+    <queryTableFields count="10">
       <queryTableField id="1" name="Id" tableColumnId="1"/>
       <queryTableField id="2" name="Designator" tableColumnId="2"/>
       <queryTableField id="3" name="Footprint" tableColumnId="3"/>
@@ -932,6 +1143,8 @@
       <queryTableField id="6" name="Supplier and ref" tableColumnId="6"/>
       <queryTableField id="7" name="Column1" tableColumnId="7"/>
       <queryTableField id="8" name="_1" tableColumnId="8"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="9"/>
+      <queryTableField id="10" dataBound="0" tableColumnId="10"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -939,8 +1152,31 @@
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{DE4760ED-920D-4C5D-8449-55102B6BC8D6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="9">
-    <queryTableFields count="8">
+  <queryTableRefresh nextId="13" unboundColumnsRight="4">
+    <queryTableFields count="10">
+      <queryTableField id="1" name="Id" tableColumnId="1"/>
+      <queryTableField id="2" name="Designator" tableColumnId="2"/>
+      <queryTableField id="3" name="Footprint" tableColumnId="3"/>
+      <queryTableField id="4" name="Quantity" tableColumnId="4"/>
+      <queryTableField id="5" name="Designation" tableColumnId="5"/>
+      <queryTableField id="6" name="Supplier and ref" tableColumnId="6"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="7"/>
+      <queryTableField id="10" dataBound="0" tableColumnId="8"/>
+      <queryTableField id="11" dataBound="0" tableColumnId="9"/>
+      <queryTableField id="12" dataBound="0" tableColumnId="10"/>
+    </queryTableFields>
+    <queryTableDeletedFields count="2">
+      <deletedField name="Column1"/>
+      <deletedField name="_1"/>
+    </queryTableDeletedFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="4" xr16:uid="{E6AF206A-C318-46D6-BACF-DB5C7C59C150}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="11" unboundColumnsRight="2">
+    <queryTableFields count="10">
       <queryTableField id="1" name="Id" tableColumnId="1"/>
       <queryTableField id="2" name="Designator" tableColumnId="2"/>
       <queryTableField id="3" name="Footprint" tableColumnId="3"/>
@@ -949,15 +1185,17 @@
       <queryTableField id="6" name="Supplier and ref" tableColumnId="6"/>
       <queryTableField id="7" name="Column1" tableColumnId="7"/>
       <queryTableField id="8" name="_1" tableColumnId="8"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="9"/>
+      <queryTableField id="10" dataBound="0" tableColumnId="10"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="3" xr16:uid="{E53AABF1-366C-43C3-820E-E20761C038E6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="9">
-    <queryTableFields count="8">
+  <queryTableRefresh nextId="11" unboundColumnsRight="2">
+    <queryTableFields count="10">
       <queryTableField id="1" name="Id" tableColumnId="1"/>
       <queryTableField id="2" name="Designator" tableColumnId="2"/>
       <queryTableField id="3" name="Footprint" tableColumnId="3"/>
@@ -966,91 +1204,87 @@
       <queryTableField id="6" name="Supplier and ref" tableColumnId="6"/>
       <queryTableField id="7" name="Column1" tableColumnId="7"/>
       <queryTableField id="8" name="_1" tableColumnId="8"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="4" xr16:uid="{E6AF206A-C318-46D6-BACF-DB5C7C59C150}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="9">
-    <queryTableFields count="8">
-      <queryTableField id="1" name="Id" tableColumnId="1"/>
-      <queryTableField id="2" name="Designator" tableColumnId="2"/>
-      <queryTableField id="3" name="Footprint" tableColumnId="3"/>
-      <queryTableField id="4" name="Quantity" tableColumnId="4"/>
-      <queryTableField id="5" name="Designation" tableColumnId="5"/>
-      <queryTableField id="6" name="Supplier and ref" tableColumnId="6"/>
-      <queryTableField id="7" name="Column1" tableColumnId="7"/>
-      <queryTableField id="8" name="_1" tableColumnId="8"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="9"/>
+      <queryTableField id="10" dataBound="0" tableColumnId="10"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D37CB551-DB15-4CCD-A1FF-C3A2585FD05A}" name="buttons" displayName="buttons" ref="A1:H6" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H6" xr:uid="{D37CB551-DB15-4CCD-A1FF-C3A2585FD05A}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D37CB551-DB15-4CCD-A1FF-C3A2585FD05A}" name="buttons" displayName="buttons" ref="A1:J6" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J6" xr:uid="{D37CB551-DB15-4CCD-A1FF-C3A2585FD05A}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{DD27FE7C-35E5-4365-BC38-9AD8105820C5}" uniqueName="1" name="Id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{CE3DAB9B-199C-4ACD-840E-93FB76E037F4}" uniqueName="2" name="Designator" queryTableFieldId="2" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{0253DCA0-0DFA-4B31-BFA9-F073B3BD8699}" uniqueName="3" name="Footprint" queryTableFieldId="3" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{CE3DAB9B-199C-4ACD-840E-93FB76E037F4}" uniqueName="2" name="Designator" queryTableFieldId="2" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{0253DCA0-0DFA-4B31-BFA9-F073B3BD8699}" uniqueName="3" name="Footprint" queryTableFieldId="3" dataDxfId="30"/>
     <tableColumn id="4" xr3:uid="{A1D855AF-9683-496B-A0AD-34E74C979E56}" uniqueName="4" name="Quantity" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{4778B437-271C-45B0-A625-1FAB8758AA15}" uniqueName="5" name="Designation" queryTableFieldId="5" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{FC0037CA-D7DA-4086-8765-56603CA7B68B}" uniqueName="6" name="Supplier and ref" queryTableFieldId="6" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{5CD26EE5-6299-4A8E-928F-FB4929899F92}" uniqueName="7" name="Column1" queryTableFieldId="7" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{5352DB65-C52D-4C62-BE95-BEF0516580EE}" uniqueName="8" name="_1" queryTableFieldId="8" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{4778B437-271C-45B0-A625-1FAB8758AA15}" uniqueName="5" name="Designation" queryTableFieldId="5" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{FC0037CA-D7DA-4086-8765-56603CA7B68B}" uniqueName="6" name="Supplier and ref" queryTableFieldId="6" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{5CD26EE5-6299-4A8E-928F-FB4929899F92}" uniqueName="7" name="megjegyzés" queryTableFieldId="7" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{5352DB65-C52D-4C62-BE95-BEF0516580EE}" uniqueName="8" name="Rendelve" queryTableFieldId="8" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{AB5E9037-7F90-483F-8E70-7927DDF55E96}" uniqueName="9" name="Megérkezett" queryTableFieldId="9" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{C60134A3-ACCD-4BA0-8B11-47572EE6557A}" uniqueName="10" name="Beültetve" queryTableFieldId="10" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1CDD9216-A536-4DC1-B16C-4F55E714EF01}" name="display" displayName="display" ref="A1:H8" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H8" xr:uid="{1CDD9216-A536-4DC1-B16C-4F55E714EF01}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1CDD9216-A536-4DC1-B16C-4F55E714EF01}" name="display" displayName="display" ref="A1:J8" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J8" xr:uid="{1CDD9216-A536-4DC1-B16C-4F55E714EF01}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{493D7495-E004-487B-85F3-8EFDEACB5279}" uniqueName="1" name="Id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{FAA380D5-9750-4AB9-837A-4FE337BD8E66}" uniqueName="2" name="Designator" queryTableFieldId="2" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{0C1E9900-8B9D-426A-AF64-0F797A67D68E}" uniqueName="3" name="Footprint" queryTableFieldId="3" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{FAA380D5-9750-4AB9-837A-4FE337BD8E66}" uniqueName="2" name="Designator" queryTableFieldId="2" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{0C1E9900-8B9D-426A-AF64-0F797A67D68E}" uniqueName="3" name="Footprint" queryTableFieldId="3" dataDxfId="22"/>
     <tableColumn id="4" xr3:uid="{69FFD415-6423-429C-9F7E-F7A85E9EACE5}" uniqueName="4" name="Quantity" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{7DCC38D0-95D5-41E3-9F89-F7B4E878AE79}" uniqueName="5" name="Designation" queryTableFieldId="5" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{E98BFE98-2296-48A9-B1DB-86FC69FF7B6E}" uniqueName="6" name="Supplier and ref" queryTableFieldId="6" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{E00D2E76-EF4F-4C57-93A0-530FF0A37ED0}" uniqueName="7" name="Column1" queryTableFieldId="7" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{B41C8A6C-D924-497D-B02F-2B0414815088}" uniqueName="8" name="_1" queryTableFieldId="8" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{7DCC38D0-95D5-41E3-9F89-F7B4E878AE79}" uniqueName="5" name="Designation" queryTableFieldId="5" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{E98BFE98-2296-48A9-B1DB-86FC69FF7B6E}" uniqueName="6" name="Supplier and ref" queryTableFieldId="6" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{FF850971-A59E-4D45-877B-5D2CAA2EA20A}" uniqueName="7" name="megjegyzés" queryTableFieldId="9" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{822F37AB-03EB-40F3-9DB7-818E0B4A7947}" uniqueName="8" name="Rendelve" queryTableFieldId="10" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{8D67F88D-5652-4A35-9BFF-3F13662F22BE}" uniqueName="9" name="Megérkezett" queryTableFieldId="11" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{14BD5EAC-80C2-4814-BFCC-ECD0D1206171}" uniqueName="10" name="Beültetve" queryTableFieldId="12" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BC8E3E15-46DC-413D-8A18-F5FC5E08BD88}" name="motherboard" displayName="motherboard" ref="A1:H49" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H49" xr:uid="{BC8E3E15-46DC-413D-8A18-F5FC5E08BD88}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{0B2EAE19-E2D3-4A7A-ABE3-0172A4612B17}" uniqueName="1" name="Id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{BF2B1662-EF4E-4231-84D3-184DFECE5A22}" uniqueName="2" name="Designator" queryTableFieldId="2" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{8B496914-33F8-4FB2-B4A2-584D8A77F307}" uniqueName="3" name="Footprint" queryTableFieldId="3" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{372EBFC3-104B-4D86-B985-BDA99D7EB783}" uniqueName="4" name="Quantity" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{FAD86CC9-57C6-4639-8428-5640EAF5D37F}" uniqueName="5" name="Designation" queryTableFieldId="5" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{4243AD62-A97B-4286-B323-163A212196CD}" uniqueName="6" name="Supplier and ref" queryTableFieldId="6" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{790CFD8F-7BFD-4BCB-8FB1-D1540E6AA055}" uniqueName="7" name="Column1" queryTableFieldId="7" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{CA655E28-6F68-4ABB-AF7C-B75FF94C6206}" uniqueName="8" name="_1" queryTableFieldId="8" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D84FE9F9-0391-4696-959C-6A16083CA01B}" name="numpad" displayName="numpad" ref="A1:J17" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J17" xr:uid="{D84FE9F9-0391-4696-959C-6A16083CA01B}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{64888395-F125-4D55-BE76-B21DAAE4225E}" uniqueName="1" name="Id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{2682271B-B9AE-42CE-A41B-A5B1B08A1DE3}" uniqueName="2" name="Designator" queryTableFieldId="2" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{5ADB5F1C-45B6-4BFA-B79C-5FFDCAE6E0A4}" uniqueName="3" name="Footprint" queryTableFieldId="3" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{BEBA8455-1752-4CCC-8456-5639A679ACFF}" uniqueName="4" name="Quantity" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{7ADD71A6-2682-4D14-89E4-BA52333A96E9}" uniqueName="5" name="Designation" queryTableFieldId="5" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{4839BE8E-7804-4588-B7A6-1FC9851719C3}" uniqueName="6" name="Supplier and ref" queryTableFieldId="6" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{8AD164E4-6043-459B-9DD8-59FB12A7E667}" uniqueName="7" name="megjegyzés" queryTableFieldId="7" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{39990787-7CA4-4775-8A4B-DB01C245E940}" uniqueName="8" name="Rendelve" queryTableFieldId="8" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{F18D4367-1099-4AAE-9545-F560A9B891E2}" uniqueName="9" name="Megérkezett" queryTableFieldId="9" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{EE957009-DC5A-4820-BAAD-6E57739C4AE3}" uniqueName="10" name="Beültetve" queryTableFieldId="10" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D84FE9F9-0391-4696-959C-6A16083CA01B}" name="numpad" displayName="numpad" ref="A1:H17" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H17" xr:uid="{D84FE9F9-0391-4696-959C-6A16083CA01B}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{64888395-F125-4D55-BE76-B21DAAE4225E}" uniqueName="1" name="Id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{2682271B-B9AE-42CE-A41B-A5B1B08A1DE3}" uniqueName="2" name="Designator" queryTableFieldId="2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{5ADB5F1C-45B6-4BFA-B79C-5FFDCAE6E0A4}" uniqueName="3" name="Footprint" queryTableFieldId="3" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{BEBA8455-1752-4CCC-8456-5639A679ACFF}" uniqueName="4" name="Quantity" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{7ADD71A6-2682-4D14-89E4-BA52333A96E9}" uniqueName="5" name="Designation" queryTableFieldId="5" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{4839BE8E-7804-4588-B7A6-1FC9851719C3}" uniqueName="6" name="Supplier and ref" queryTableFieldId="6" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{8AD164E4-6043-459B-9DD8-59FB12A7E667}" uniqueName="7" name="Column1" queryTableFieldId="7" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{39990787-7CA4-4775-8A4B-DB01C245E940}" uniqueName="8" name="_1" queryTableFieldId="8" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BC8E3E15-46DC-413D-8A18-F5FC5E08BD88}" name="motherboard" displayName="motherboard" ref="A1:J49" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J49" xr:uid="{BC8E3E15-46DC-413D-8A18-F5FC5E08BD88}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I49">
+    <sortCondition ref="C1:C49"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{0B2EAE19-E2D3-4A7A-ABE3-0172A4612B17}" uniqueName="1" name="Id" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{BF2B1662-EF4E-4231-84D3-184DFECE5A22}" uniqueName="2" name="Designator" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{8B496914-33F8-4FB2-B4A2-584D8A77F307}" uniqueName="3" name="Footprint" queryTableFieldId="3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{372EBFC3-104B-4D86-B985-BDA99D7EB783}" uniqueName="4" name="Quantity" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{FAD86CC9-57C6-4639-8428-5640EAF5D37F}" uniqueName="5" name="Designation" queryTableFieldId="5" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{4243AD62-A97B-4286-B323-163A212196CD}" uniqueName="6" name="Supplier and ref" queryTableFieldId="6" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{790CFD8F-7BFD-4BCB-8FB1-D1540E6AA055}" uniqueName="7" name="megjegyzés" queryTableFieldId="7" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{CA655E28-6F68-4ABB-AF7C-B75FF94C6206}" uniqueName="8" name="Rendelve" queryTableFieldId="8" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{06C3194F-08A2-4D9E-9658-51D756C0BDA1}" uniqueName="9" name="Megérkezett" queryTableFieldId="9" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{DA899B3C-1E46-4956-86A1-611EEDD92D50}" uniqueName="10" name="Beültetve" queryTableFieldId="10" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1319,10 +1553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C54C7BE-B338-4316-9779-EB171011541A}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,12 +1566,14 @@
     <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1357,141 +1593,157 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>227</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>260</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>225</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>231</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>229</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1503,9 +1755,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5941601B-54FE-40CA-8482-078A82FD5266}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1514,12 +1768,14 @@
     <col min="3" max="3" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1539,193 +1795,193 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>256</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="I1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>262</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>254</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
+      <c r="F6" t="s">
+        <v>235</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>262</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1736,23 +1992,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CE415F-4849-4EAB-8159-9D51E1DBB2FF}">
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBF3E33-218F-4298-8BB3-95EEDD4DA32A}">
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1772,1259 +2032,462 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>256</v>
       </c>
       <c r="H1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D2">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>227</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>93</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>225</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>268</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>155</v>
+      </c>
+      <c r="F8" t="s">
+        <v>253</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>235</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>237</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>158</v>
+      </c>
+      <c r="F11" t="s">
+        <v>271</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>11</v>
+        <v>160</v>
+      </c>
+      <c r="F12" t="s">
+        <v>272</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>229</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>233</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>11</v>
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>244</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>11</v>
+        <v>162</v>
+      </c>
+      <c r="F16" t="s">
+        <v>273</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>240</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18">
-        <v>6</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22">
-        <v>7</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26">
-        <v>6</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27">
-        <v>7</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3035,26 +2498,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBF3E33-218F-4298-8BB3-95EEDD4DA32A}">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CE415F-4849-4EAB-8159-9D51E1DBB2FF}">
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="81.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="105.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3074,307 +2537,335 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
+        <v>235</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>110</v>
+      </c>
+      <c r="F7" t="s">
+        <v>248</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>144</v>
+      </c>
+      <c r="F8" t="s">
+        <v>278</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" t="s">
+        <v>279</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" t="s">
+        <v>280</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>275</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>281</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>33</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -3382,119 +2873,998 @@
       <c r="E13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
+        <v>261</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
+        <v>282</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>283</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>297</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21">
+        <v>280</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>17</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>225</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>299</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
+        <v>237</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27">
         <v>11</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>229</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" t="s">
+        <v>244</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>16</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" t="s">
+        <v>286</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" t="s">
+        <v>266</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>41</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" t="s">
+        <v>288</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>43</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" t="s">
+        <v>289</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>40</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" t="s">
+        <v>290</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>13</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
+        <v>291</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>27</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>17</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" t="s">
+        <v>239</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" t="s">
+        <v>276</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" t="s">
+        <v>276</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>29</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" t="s">
+        <v>276</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F43" t="s">
+        <v>276</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>48</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F44" t="s">
+        <v>276</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>26</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>35</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>20</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" t="s">
+        <v>293</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>22</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" t="s">
+        <v>294</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>34</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" t="s">
+        <v>295</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3506,306 +3876,378 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="125.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="122.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="E1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B2">
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B3">
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B4">
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B5">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B6">
         <v>12</v>
       </c>
       <c r="C6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" t="s">
         <v>236</v>
       </c>
-      <c r="D6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>174</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>176</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>253</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>254</v>
+      </c>
+      <c r="D27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3813,7 +4255,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3821,7 +4263,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3829,7 +4271,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3837,7 +4279,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3845,7 +4287,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3853,7 +4295,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3861,7 +4303,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3869,7 +4311,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3877,7 +4319,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -3885,7 +4327,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -3893,7 +4335,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3901,7 +4343,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -3909,7 +4351,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -3917,7 +4359,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -3925,7 +4367,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -3933,7 +4375,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -3941,7 +4383,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3949,7 +4391,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -3957,7 +4399,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -3965,7 +4407,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -3973,7 +4415,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -3981,7 +4423,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -3989,7 +4431,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -3997,7 +4439,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -4005,7 +4447,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -4013,7 +4455,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -4021,17 +4463,9 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>225</v>
-      </c>
-      <c r="B60">
         <v>1</v>
       </c>
     </row>

--- a/KiCad/BOMs/Boms.xlsx
+++ b/KiCad/BOMs/Boms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SNA1BP\Documents\Masters-thesis\KiCad\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A78B94B-D0FA-44F3-BA04-A3DA94A0F342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021CC014-6E6C-4BF6-A462-3CE09E1A9A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="buttons" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="300">
   <si>
     <t>Id</t>
   </si>
@@ -2501,8 +2501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CE415F-4849-4EAB-8159-9D51E1DBB2FF}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="C34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3878,8 +3878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KiCad/BOMs/Boms.xlsx
+++ b/KiCad/BOMs/Boms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SNA1BP\Documents\Masters-thesis\KiCad\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021CC014-6E6C-4BF6-A462-3CE09E1A9A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7717A2-DAB5-43C2-AE12-13C1317643B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-8850" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="buttons" sheetId="2" r:id="rId1"/>
@@ -1556,7 +1556,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,7 +1630,9 @@
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1658,7 +1660,9 @@
       <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1686,7 +1690,9 @@
       <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1714,7 +1720,9 @@
       <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1742,7 +1750,9 @@
       <c r="H6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
       <c r="J6" s="1"/>
     </row>
   </sheetData>
@@ -1757,8 +1767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5941601B-54FE-40CA-8482-078A82FD5266}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1828,7 +1838,9 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3878,7 +3890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
